--- a/ZZZ_extra-stuff/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
+++ b/ZZZ_extra-stuff/Námskeið verkfræðideildar vor og haust 2022 með undanförum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karitasetnaelmarsdottir/Documents/GitHub/LIKX2/ZZZ_extra-stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09AF2E-DDE8-A347-9553-DEE1AEA36BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7D2E4-C8B6-7845-93F6-B9360C67BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="602">
   <si>
     <t>CourseCode</t>
   </si>
@@ -1869,6 +1869,24 @@
   </si>
   <si>
     <t>1V??</t>
+  </si>
+  <si>
+    <t>Nýsköpun og stofnun fyrirtækja</t>
+  </si>
+  <si>
+    <t>X-204-STOF</t>
+  </si>
+  <si>
+    <t>Gagnasafnsfræði</t>
+  </si>
+  <si>
+    <t>T-202-GAG1</t>
+  </si>
+  <si>
+    <t>Rafsegulfræði og hálfleiðarar</t>
+  </si>
+  <si>
+    <t>T-303-RASE</t>
   </si>
 </sst>
 </file>
@@ -1890,12 +1908,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1910,8 +1934,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,8 +1955,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA1D17C-0035-42EB-B7C7-C03A633A6D37}" name="Table1" displayName="Table1" ref="A1:M117" totalsRowShown="0">
-  <autoFilter ref="A1:M117" xr:uid="{71E19537-3BF6-48C1-AD92-F737D92D02D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA1D17C-0035-42EB-B7C7-C03A633A6D37}" name="Table1" displayName="Table1" ref="A1:M121" totalsRowShown="0">
+  <autoFilter ref="A1:M121" xr:uid="{71E19537-3BF6-48C1-AD92-F737D92D02D2}"/>
   <tableColumns count="13">
     <tableColumn id="2" xr3:uid="{506EE57C-22FE-4740-A8BF-0E7E7069198F}" name="CourseCode"/>
     <tableColumn id="3" xr3:uid="{F4634A52-1A16-4A1F-8869-44104DB0550F}" name="Name"/>
@@ -2248,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7059,6 +7084,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>597</v>
+      </c>
+      <c r="B118" t="s">
+        <v>596</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>477</v>
+      </c>
+      <c r="E118" t="s">
+        <v>407</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F119" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F120" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>601</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F121" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
